--- a/Part II/Ch_13/example_copy.xlsx
+++ b/Part II/Ch_13/example_copy.xlsx
@@ -2,35 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="288" yWindow="96" windowWidth="9540" windowHeight="4512" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Spam Soam Spam" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="First Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,22 +47,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -147,7 +132,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -182,7 +166,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -363,111 +346,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="20.109375" customWidth="1" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>42099.56530092593</v>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>42099.15373842593</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Cherries</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>42100.53253472222</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Pears</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>42102.37480324074</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Oranges</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>42104.08819444444</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>42104.75737268518</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Bananas</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>42104.11164351852</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Strawberries</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -483,26 +370,8 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>